--- a/Doc/99管理対象外/10_個人フォルダ/Giphe/6月/ブログネタ20200623.xlsx
+++ b/Doc/99管理対象外/10_個人フォルダ/Giphe/6月/ブログネタ20200623.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\99管理対象外\10_個人フォルダ\Giphe\6月\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A86D639-747F-47FC-8031-59B7E6F98C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727669C4-1E5D-4F7F-8BD5-1F09030EC47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1284" yWindow="1548" windowWidth="17280" windowHeight="8916" xr2:uid="{0CC52F0B-1832-4F4E-A984-5EBB82C7E33D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0CC52F0B-1832-4F4E-A984-5EBB82C7E33D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WordPress" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +100,18 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2C3338"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,12 +136,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3041,6 +3061,187 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>208324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A013E59-D2A9-4C5E-BC3F-96DEC55A5ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="228600"/>
+          <a:ext cx="18285714" cy="9809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>208324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A065A39-D54A-49D2-8A2A-F866AA0D7576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="10287000"/>
+          <a:ext cx="18285714" cy="9809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>208324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2A65CF-86C6-432A-872E-352EA7890BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="20345400"/>
+          <a:ext cx="18285714" cy="9809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>208324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67802244-4D41-4279-97F3-517151405A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="30403800"/>
+          <a:ext cx="18285714" cy="9809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3345,23 +3546,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4D802F-AB12-4C29-84C9-C33C39348E4A}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -3369,7 +3570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12">
       <c r="L5" s="1"/>
     </row>
   </sheetData>
@@ -3377,4 +3578,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8D65B-A689-4C84-951F-86AABABC7DF0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="K179" sqref="K179"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12A700-C467-48A9-83D5-D8786036CA0C}">
+  <dimension ref="B3:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>